--- a/data/case1/20/cost_1.xlsx
+++ b/data/case1/20/cost_1.xlsx
@@ -57,19 +57,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="2" max="2" width="10.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="10.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>161.78987076510424</v>
+        <v>161.7820836633567</v>
       </c>
       <c r="B1" s="0">
-        <v>4.2106460195465711</v>
+        <v>4.3242779954860699</v>
       </c>
       <c r="C1" s="0">
-        <v>5.6105675146771041</v>
+        <v>5.3979125896934113</v>
       </c>
     </row>
   </sheetData>
